--- a/tests/Unit/Service/Inventory/inventory-link-remark-1.xlsx
+++ b/tests/Unit/Service/Inventory/inventory-link-remark-1.xlsx
@@ -1538,7 +1538,7 @@
         <v>22</v>
       </c>
       <c r="M2" s="9">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1">
@@ -1577,7 +1577,7 @@
         <v>22</v>
       </c>
       <c r="M3" s="9">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
